--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Cliente</t>
   </si>
@@ -25,10 +25,10 @@
     <t>Mensagem</t>
   </si>
   <si>
-    <t>Futurotec</t>
+    <t>Gabriel</t>
   </si>
   <si>
-    <t>553138016805</t>
+    <t>5531985927928</t>
   </si>
   <si>
     <t>Olá!</t>
@@ -40,16 +40,10 @@
     <t>552126665800</t>
   </si>
   <si>
-    <t>Segmedic WBUS</t>
+    <t>Futurotec</t>
   </si>
   <si>
-    <t>552126665802</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>5531985927928</t>
+    <t>553138016805</t>
   </si>
 </sst>
 </file>
@@ -57,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -78,6 +72,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -86,10 +139,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,9 +177,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,113 +208,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,13 +238,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,19 +352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +364,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,127 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,15 +423,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,15 +437,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +471,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -518,162 +523,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -945,13 +939,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C5"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="22.8761904761905" customWidth="1"/>
     <col min="2" max="2" width="23.752380952381" customWidth="1"/>
@@ -968,16 +962,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="3" t="s">
@@ -998,17 +994,6 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
